--- a/database/industries/folad/fasazan/cashflow/quarterly.xlsx
+++ b/database/industries/folad/fasazan/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fasazan\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fasazan\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8167E8-0089-46C1-9DB3-57296A3FEA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF379AF-F5F7-44D0-BC98-03CED5E284CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-29</t>
+  </si>
+  <si>
+    <t>1399-03-12 (9)</t>
+  </si>
+  <si>
+    <t>1399-05-01 (4)</t>
+  </si>
+  <si>
+    <t>1399-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1399-11-08 (3)</t>
+  </si>
+  <si>
+    <t>1400-04-03 (10)</t>
+  </si>
+  <si>
+    <t>1400-04-29 (3)</t>
+  </si>
+  <si>
+    <t>1400-09-06 (5)</t>
+  </si>
+  <si>
     <t>1400-10-30 (3)</t>
   </si>
   <si>
@@ -88,16 +142,19 @@
     <t>1402-03-07 (12)</t>
   </si>
   <si>
-    <t>1401-05-26 (2)</t>
-  </si>
-  <si>
-    <t>1401-09-06 (3)</t>
+    <t>1402-04-29 (3)</t>
+  </si>
+  <si>
+    <t>1402-07-29 (4)</t>
   </si>
   <si>
     <t>1401-10-26</t>
   </si>
   <si>
-    <t>1402-03-07 (2)</t>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,9 +793,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,8 +813,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +839,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +865,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +889,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,8 +915,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,8 +941,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,8 +965,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,44 +1011,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,10 +1121,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,118 +1147,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>70603</v>
+      </c>
+      <c r="E12" s="15">
+        <v>-64556</v>
+      </c>
+      <c r="F12" s="15">
+        <v>210687</v>
+      </c>
+      <c r="G12" s="15">
+        <v>-48217</v>
+      </c>
+      <c r="H12" s="15">
+        <v>142381</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-76703</v>
+      </c>
+      <c r="J12" s="15">
+        <v>224760</v>
+      </c>
+      <c r="K12" s="15">
+        <v>147656</v>
+      </c>
+      <c r="L12" s="15">
         <v>620061</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>-357101</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>157866</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>-332930</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>-1283230</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>207530</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>786251</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>1169481</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>-680509</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>1085382</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>780371</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1528181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>27561</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-27209</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-15609</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-339</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-5936</v>
+      </c>
+      <c r="L13" s="11">
         <v>-10388</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>-3463</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
         <v>-9419</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-14530</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>-47379</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>-6427</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>-45973</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>1</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-980</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>98164</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-91765</v>
+      </c>
+      <c r="F14" s="17">
+        <v>210687</v>
+      </c>
+      <c r="G14" s="17">
+        <v>-63826</v>
+      </c>
+      <c r="H14" s="17">
+        <v>142381</v>
+      </c>
+      <c r="I14" s="17">
+        <v>-77042</v>
+      </c>
+      <c r="J14" s="17">
+        <v>224760</v>
+      </c>
+      <c r="K14" s="17">
+        <v>141720</v>
+      </c>
+      <c r="L14" s="17">
         <v>609673</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>-360564</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>157866</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>-342349</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>-1297760</v>
       </c>
-      <c r="I14" s="17">
+      <c r="Q14" s="17">
         <v>160151</v>
       </c>
-      <c r="J14" s="17">
+      <c r="R14" s="17">
         <v>779824</v>
       </c>
-      <c r="K14" s="17">
+      <c r="S14" s="17">
         <v>1123508</v>
       </c>
-      <c r="L14" s="17">
+      <c r="T14" s="17">
         <v>-680508</v>
       </c>
-      <c r="M14" s="17">
+      <c r="U14" s="17">
         <v>1085422</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="17">
+        <v>780371</v>
+      </c>
+      <c r="W14" s="17">
+        <v>1527201</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1069,17 +1371,27 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1105,46 +1417,106 @@
       <c r="M16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>77451</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-142069</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-58270</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-33295</v>
+      </c>
+      <c r="H17" s="11">
+        <v>91303</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-234361</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-13239</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-236404</v>
+      </c>
+      <c r="L17" s="11">
         <v>-23771</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-377121</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-275979</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-323726</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>-473016</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>-422512</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>-322108</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>-512039</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>-336754</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>-215545</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>-367801</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-268557</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1177,10 +1549,40 @@
       <c r="M18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1213,82 +1615,172 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>-1003</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-839</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-703</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-29826</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-148143</v>
+      </c>
+      <c r="I20" s="15">
+        <v>142957</v>
+      </c>
+      <c r="J20" s="15">
+        <v>-40</v>
+      </c>
+      <c r="K20" s="15">
+        <v>-1500</v>
+      </c>
+      <c r="L20" s="15">
         <v>-22993</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>-87744</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>-2450</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
         <v>-41537</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>-6889</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>-23393</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>-77701</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>-57804</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>-178670</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>-32558</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
         <v>-20765</v>
       </c>
-      <c r="F21" s="11">
+      <c r="N21" s="11">
         <v>-11200</v>
       </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1321,10 +1813,40 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1334,141 +1856,261 @@
         <v>0</v>
       </c>
       <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
         <v>1451</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>1</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
         <v>-190</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E24" s="15">
+        <v>-134</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-33039</v>
+      </c>
+      <c r="I24" s="15">
+        <v>33039</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>-35000</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
         <v>-26000</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
+      <c r="S24" s="15">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
         <v>-14998</v>
       </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>11000</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
         <v>197447</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
         <v>300000</v>
       </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
         <v>186145</v>
       </c>
-      <c r="J25" s="11">
+      <c r="R25" s="11">
         <v>7797</v>
       </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>49371</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>-7500</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-585</v>
+      </c>
+      <c r="K26" s="15">
+        <v>585</v>
+      </c>
+      <c r="L26" s="15">
         <v>-420000</v>
       </c>
-      <c r="E26" s="15">
+      <c r="M26" s="15">
         <v>-197447</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="15">
         <v>-155082</v>
       </c>
-      <c r="J26" s="15">
+      <c r="R26" s="15">
         <v>-13227</v>
       </c>
-      <c r="K26" s="15">
+      <c r="S26" s="15">
         <v>-6014</v>
       </c>
-      <c r="L26" s="15">
-        <v>0</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T26" s="15">
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>-47308</v>
+      </c>
+      <c r="W26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1501,10 +2143,40 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1537,10 +2209,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1573,154 +2275,304 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
         <v>86</v>
       </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15">
         <v>3368</v>
       </c>
-      <c r="I30" s="15">
+      <c r="Q30" s="15">
         <v>7574</v>
       </c>
-      <c r="J30" s="15">
+      <c r="R30" s="15">
         <v>817</v>
       </c>
-      <c r="K30" s="15">
+      <c r="S30" s="15">
         <v>1662</v>
       </c>
-      <c r="L30" s="15">
+      <c r="T30" s="15">
         <v>1775</v>
       </c>
-      <c r="M30" s="15">
+      <c r="U30" s="15">
         <v>3833</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>773</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3721</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1103</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1082</v>
+      </c>
+      <c r="H31" s="11">
+        <v>953</v>
+      </c>
+      <c r="I31" s="11">
+        <v>1902</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1642</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1782</v>
+      </c>
+      <c r="L31" s="11">
         <v>2567</v>
       </c>
-      <c r="E31" s="11">
+      <c r="M31" s="11">
         <v>3515</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>2984</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>3982</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>7753</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>9615</v>
       </c>
-      <c r="J31" s="11">
+      <c r="R31" s="11">
         <v>10655</v>
       </c>
-      <c r="K31" s="11">
+      <c r="S31" s="11">
         <v>11721</v>
       </c>
-      <c r="L31" s="11">
+      <c r="T31" s="11">
         <v>4344</v>
       </c>
-      <c r="M31" s="11">
+      <c r="U31" s="11">
         <v>6105</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>5628</v>
+      </c>
+      <c r="W31" s="11">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>76299</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-144923</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-57870</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-62039</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-88926</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-45463</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-12222</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-270537</v>
+      </c>
+      <c r="L32" s="17">
         <v>-464111</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>-508115</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-285194</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>-19743</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>-503432</v>
       </c>
-      <c r="I32" s="17">
+      <c r="Q32" s="17">
         <v>-381339</v>
       </c>
-      <c r="J32" s="17">
+      <c r="R32" s="17">
         <v>-339459</v>
       </c>
-      <c r="K32" s="17">
+      <c r="S32" s="17">
         <v>-582371</v>
       </c>
-      <c r="L32" s="17">
+      <c r="T32" s="17">
         <v>-403437</v>
       </c>
-      <c r="M32" s="17">
+      <c r="U32" s="17">
         <v>-384277</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="17">
+        <v>-360110</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-291094</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>174463</v>
+      </c>
+      <c r="E33" s="19">
+        <v>-236688</v>
+      </c>
+      <c r="F33" s="19">
+        <v>152817</v>
+      </c>
+      <c r="G33" s="19">
+        <v>-125865</v>
+      </c>
+      <c r="H33" s="19">
+        <v>53455</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-122505</v>
+      </c>
+      <c r="J33" s="19">
+        <v>212538</v>
+      </c>
+      <c r="K33" s="19">
+        <v>-128817</v>
+      </c>
+      <c r="L33" s="19">
         <v>145562</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>-868679</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>-127328</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>-362092</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>-1801192</v>
       </c>
-      <c r="I33" s="19">
+      <c r="Q33" s="19">
         <v>-221188</v>
       </c>
-      <c r="J33" s="19">
+      <c r="R33" s="19">
         <v>440365</v>
       </c>
-      <c r="K33" s="19">
+      <c r="S33" s="19">
         <v>541137</v>
       </c>
-      <c r="L33" s="19">
+      <c r="T33" s="19">
         <v>-1083945</v>
       </c>
-      <c r="M33" s="19">
+      <c r="U33" s="19">
         <v>701145</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>420261</v>
+      </c>
+      <c r="W33" s="19">
+        <v>1236107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1733,10 +2585,20 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1755,60 +2617,120 @@
         <v>0</v>
       </c>
       <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
         <v>921582</v>
       </c>
-      <c r="J35" s="15">
+      <c r="R35" s="15">
         <v>112176</v>
       </c>
-      <c r="K35" s="15">
-        <v>0</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="S35" s="15">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1841,10 +2763,40 @@
       <c r="M37" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1877,118 +2829,238 @@
       <c r="M38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>200000</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>100000</v>
+      </c>
+      <c r="H39" s="15">
+        <v>350000</v>
+      </c>
+      <c r="I39" s="15">
+        <v>151000</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>398353</v>
+      </c>
+      <c r="L39" s="15">
         <v>1011345</v>
       </c>
-      <c r="E39" s="15">
+      <c r="M39" s="15">
         <v>673031</v>
       </c>
-      <c r="F39" s="15">
+      <c r="N39" s="15">
         <v>750000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="O39" s="15">
         <v>1742016</v>
       </c>
-      <c r="H39" s="15">
+      <c r="P39" s="15">
         <v>1974789</v>
       </c>
-      <c r="I39" s="15">
+      <c r="Q39" s="15">
         <v>2549415</v>
       </c>
-      <c r="J39" s="15">
+      <c r="R39" s="15">
         <v>600000</v>
       </c>
-      <c r="K39" s="15">
+      <c r="S39" s="15">
         <v>962635</v>
       </c>
-      <c r="L39" s="15">
+      <c r="T39" s="15">
         <v>2395099</v>
       </c>
-      <c r="M39" s="15">
+      <c r="U39" s="15">
         <v>1975475</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V39" s="15">
+        <v>2175000</v>
+      </c>
+      <c r="W39" s="15">
+        <v>2072780</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-36511</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-68660</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-73857</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-84649</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-128245</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-67005</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-173313</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-168079</v>
+      </c>
+      <c r="L40" s="11">
         <v>-283082</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>-463813</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>-443464</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>-852206</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>-607677</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>-2577080</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>-1026274</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>-1454912</v>
       </c>
-      <c r="L40" s="11">
+      <c r="T40" s="11">
         <v>-902823</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>-2311439</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>-1673688</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-2525406</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-4696</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-9055</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-8086</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-6503</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-6863</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-14079</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-22900</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-16860</v>
+      </c>
+      <c r="L41" s="15">
         <v>-37921</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-21568</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>-72763</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>-86099</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>-39178</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>-206990</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>-41721</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>-222784</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>-131548</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>-243317</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>-228777</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-325922</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2021,10 +3093,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2057,10 +3159,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2093,10 +3225,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2129,10 +3291,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2165,10 +3357,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2201,10 +3423,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2237,10 +3489,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2273,226 +3555,436 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-17500</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-163419</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-29243</v>
+      </c>
+      <c r="L50" s="11">
         <v>-104186</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-64402</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>-1929</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>-3558</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-136628</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-8266</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>-10468</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>-124079</v>
       </c>
-      <c r="L50" s="11">
-        <v>0</v>
-      </c>
-      <c r="M50" s="11">
+      <c r="T50" s="11">
+        <v>0</v>
+      </c>
+      <c r="U50" s="11">
         <v>-183848</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>-1097</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-371213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-58707</v>
+      </c>
+      <c r="E51" s="17">
+        <v>122285</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-81943</v>
+      </c>
+      <c r="G51" s="17">
+        <v>8848</v>
+      </c>
+      <c r="H51" s="17">
+        <v>214892</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-93503</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-196213</v>
+      </c>
+      <c r="K51" s="17">
+        <v>184171</v>
+      </c>
+      <c r="L51" s="17">
         <v>586156</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>123248</v>
       </c>
-      <c r="F51" s="17">
+      <c r="N51" s="17">
         <v>231844</v>
       </c>
-      <c r="G51" s="17">
+      <c r="O51" s="17">
         <v>800153</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>1191306</v>
       </c>
-      <c r="I51" s="17">
+      <c r="Q51" s="17">
         <v>678661</v>
       </c>
-      <c r="J51" s="17">
+      <c r="R51" s="17">
         <v>-366287</v>
       </c>
-      <c r="K51" s="17">
+      <c r="S51" s="17">
         <v>-839140</v>
       </c>
-      <c r="L51" s="17">
+      <c r="T51" s="17">
         <v>1360728</v>
       </c>
-      <c r="M51" s="17">
+      <c r="U51" s="17">
         <v>-763129</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V51" s="17">
+        <v>271438</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-1149761</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>115756</v>
+      </c>
+      <c r="E52" s="19">
+        <v>-114403</v>
+      </c>
+      <c r="F52" s="19">
+        <v>70874</v>
+      </c>
+      <c r="G52" s="19">
+        <v>-117017</v>
+      </c>
+      <c r="H52" s="19">
+        <v>268347</v>
+      </c>
+      <c r="I52" s="19">
+        <v>-216008</v>
+      </c>
+      <c r="J52" s="19">
+        <v>16325</v>
+      </c>
+      <c r="K52" s="19">
+        <v>55354</v>
+      </c>
+      <c r="L52" s="19">
         <v>731718</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>-745431</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>104516</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>438061</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>-609886</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>457473</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>74078</v>
       </c>
-      <c r="K52" s="19">
+      <c r="S52" s="19">
         <v>-298003</v>
       </c>
-      <c r="L52" s="19">
+      <c r="T52" s="19">
         <v>276783</v>
       </c>
-      <c r="M52" s="19">
+      <c r="U52" s="19">
         <v>-61984</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V52" s="19">
+        <v>691699</v>
+      </c>
+      <c r="W52" s="19">
+        <v>86346</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>86558</v>
+      </c>
+      <c r="E53" s="15">
+        <v>201804</v>
+      </c>
+      <c r="F53" s="15">
+        <v>95621</v>
+      </c>
+      <c r="G53" s="15">
+        <v>165795</v>
+      </c>
+      <c r="H53" s="15">
+        <v>57622</v>
+      </c>
+      <c r="I53" s="15">
+        <v>322945</v>
+      </c>
+      <c r="J53" s="15">
+        <v>111894</v>
+      </c>
+      <c r="K53" s="15">
+        <v>132133</v>
+      </c>
+      <c r="L53" s="15">
         <v>197202</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>935891</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>158958</v>
       </c>
-      <c r="G53" s="15">
+      <c r="O53" s="15">
         <v>262455</v>
       </c>
-      <c r="H53" s="15">
+      <c r="P53" s="15">
         <v>707818</v>
       </c>
-      <c r="I53" s="15">
-        <v>93888</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
         <v>548488</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>622786</v>
       </c>
-      <c r="L53" s="15">
+      <c r="T53" s="15">
         <v>328344</v>
       </c>
-      <c r="M53" s="15">
+      <c r="U53" s="15">
         <v>617090</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>552209</v>
+      </c>
+      <c r="W53" s="15">
+        <v>1264461</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-510</v>
+      </c>
+      <c r="E54" s="11">
+        <v>8220</v>
+      </c>
+      <c r="F54" s="11">
+        <v>-700</v>
+      </c>
+      <c r="G54" s="11">
+        <v>8844</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-3024</v>
+      </c>
+      <c r="I54" s="11">
+        <v>4957</v>
+      </c>
+      <c r="J54" s="11">
+        <v>3914</v>
+      </c>
+      <c r="K54" s="11">
+        <v>9715</v>
+      </c>
+      <c r="L54" s="11">
         <v>6971</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>-31502</v>
       </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
         <v>-1019</v>
       </c>
-      <c r="G54" s="11">
+      <c r="O54" s="11">
         <v>7302</v>
       </c>
-      <c r="H54" s="11">
+      <c r="P54" s="11">
         <v>-4044</v>
       </c>
-      <c r="I54" s="11">
+      <c r="Q54" s="11">
         <v>-2873</v>
       </c>
-      <c r="J54" s="11">
+      <c r="R54" s="11">
         <v>220</v>
       </c>
-      <c r="K54" s="11">
+      <c r="S54" s="11">
         <v>3561</v>
       </c>
-      <c r="L54" s="11">
+      <c r="T54" s="11">
         <v>11963</v>
       </c>
-      <c r="M54" s="11">
+      <c r="U54" s="11">
         <v>-2897</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>20553</v>
+      </c>
+      <c r="W54" s="11">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>201804</v>
+      </c>
+      <c r="E55" s="17">
+        <v>95621</v>
+      </c>
+      <c r="F55" s="17">
+        <v>165795</v>
+      </c>
+      <c r="G55" s="17">
+        <v>57622</v>
+      </c>
+      <c r="H55" s="17">
+        <v>322945</v>
+      </c>
+      <c r="I55" s="17">
+        <v>111894</v>
+      </c>
+      <c r="J55" s="17">
+        <v>132133</v>
+      </c>
+      <c r="K55" s="17">
+        <v>197202</v>
+      </c>
+      <c r="L55" s="17">
         <v>935891</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>158958</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>262455</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>707818</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>93888</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>548488</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>622786</v>
       </c>
-      <c r="K55" s="17">
+      <c r="S55" s="17">
         <v>328344</v>
       </c>
-      <c r="L55" s="17">
+      <c r="T55" s="17">
         <v>617090</v>
       </c>
-      <c r="M55" s="17">
+      <c r="U55" s="17">
         <v>552209</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V55" s="17">
+        <v>1264461</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1352767</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
@@ -2511,22 +4003,52 @@
         <v>0</v>
       </c>
       <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="11">
         <v>346242</v>
       </c>
-      <c r="J56" s="11">
-        <v>0</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2539,6 +4061,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
